--- a/risc-cpu.xlsx
+++ b/risc-cpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10451" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10451" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="指令集" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="197">
   <si>
     <t>指令</t>
   </si>
@@ -484,7 +484,7 @@
     <t>OUTPUT</t>
   </si>
   <si>
-    <t>IN R0 9</t>
+    <t>IN R0 7</t>
   </si>
   <si>
     <t>X</t>
@@ -497,12 +497,161 @@
   </si>
   <si>
     <r>
+      <t>读入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>MOV R1 R0</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <t>IN RO 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>读入</t>
     </r>
     <r>
@@ -512,8 +661,393 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DEC R0</t>
+  </si>
+  <si>
+    <t>R0--</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <t>INC R0</t>
+  </si>
+  <si>
+    <t>R0++</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <t>SUB R1 R0</t>
+  </si>
+  <si>
+    <t>R1-R0 -&gt; R0</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ADD R1 R0</t>
+  </si>
+  <si>
+    <t>R0+R1 -&gt; R0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>9</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>STA R1 R0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的数据输入到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应的地址</t>
+    </r>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <r>
@@ -559,16 +1093,114 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>MOV R1 R0</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>OUT R0</t>
+  </si>
+  <si>
+    <t>[R0] -&gt; OUTPUT</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>CLR R0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清空</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -578,6 +1210,20 @@
       </rPr>
       <t>R0</t>
     </r>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -585,20 +1231,106 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>移到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R1</t>
-    </r>
-  </si>
-  <si>
-    <t>94</t>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <t>JMP R0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳到地址为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的位置</t>
+    </r>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <r>
@@ -644,749 +1376,14 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <t>IN RO 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DEC R0</t>
-  </si>
-  <si>
-    <t>R0--</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <t>INC R0</t>
-  </si>
-  <si>
-    <t>R0++</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18</t>
-    </r>
-  </si>
-  <si>
-    <t>SUB R1 R0</t>
-  </si>
-  <si>
-    <t>R1-R0 -&gt; R0</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ADD R1 R0</t>
-  </si>
-  <si>
-    <t>R0+R1 -&gt; R0</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>STA R1 R0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的数据输入到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应的地址</t>
-    </r>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>OUT R0</t>
-  </si>
-  <si>
-    <t>[R0] -&gt; OUTPUT</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>CLR R0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R0</t>
-    </r>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>JMP R0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳到地址为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的位置</t>
-    </r>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>21</t>
     </r>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>step</t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1418,6 +1415,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1425,21 +1428,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1452,27 +1440,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1493,17 +1460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,6 +1491,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,25 +1553,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -1647,7 +1644,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,31 +1710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,7 +1728,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,85 +1800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,25 +1812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,17 +1983,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,17 +2010,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2049,11 +2046,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,17 +2072,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,286 +2086,289 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2832,1240 +2832,1240 @@
   <sheetPr/>
   <dimension ref="A1:AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="11.8981481481481" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.4722222222222" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.8055555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.7777777777778" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="23" width="11.2777777777778" style="3" customWidth="1"/>
-    <col min="24" max="25" width="11.2777777777778" style="5" customWidth="1"/>
-    <col min="26" max="31" width="9" style="3"/>
-    <col min="32" max="32" width="6.12962962962963" style="3" customWidth="1"/>
-    <col min="33" max="33" width="5.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="5" style="3" customWidth="1"/>
-    <col min="35" max="35" width="5.25" style="3" customWidth="1"/>
-    <col min="36" max="16383" width="9" style="3"/>
+    <col min="1" max="1" width="11.8981481481481" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.4722222222222" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8055555555556" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.7777777777778" style="4" customWidth="1"/>
+    <col min="6" max="23" width="11.2777777777778" style="4" customWidth="1"/>
+    <col min="24" max="25" width="11.2777777777778" style="6" customWidth="1"/>
+    <col min="26" max="31" width="9" style="4"/>
+    <col min="32" max="32" width="6.12962962962963" style="4" customWidth="1"/>
+    <col min="33" max="33" width="5.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="5" style="4" customWidth="1"/>
+    <col min="35" max="35" width="5.25" style="4" customWidth="1"/>
+    <col min="36" max="16383" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.9" customHeight="1" spans="1:35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="31" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40" t="s">
+      <c r="V1" s="40"/>
+      <c r="W1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
+      <c r="Y1" s="42"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
     </row>
     <row r="2" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="9" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" customFormat="1" ht="23.9" customHeight="1" spans="1:35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="23.9" customHeight="1" spans="1:35">
-      <c r="A4" s="18" t="s">
+    <row r="4" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:35">
+      <c r="A4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33">
-        <v>1</v>
-      </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="38">
-        <v>1</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="41" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34">
+        <v>1</v>
+      </c>
+      <c r="S4" s="34"/>
+      <c r="T4" s="39">
+        <v>1</v>
+      </c>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="23.9" customHeight="1" spans="1:35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="3" t="s">
+    <row r="5" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39">
-        <v>1</v>
-      </c>
-      <c r="W5" s="42">
-        <v>1</v>
-      </c>
-      <c r="X5" s="41" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40">
+        <v>1</v>
+      </c>
+      <c r="W5" s="43">
+        <v>1</v>
+      </c>
+      <c r="X5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="41" t="s">
+      <c r="Y5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="41" t="s">
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y6" s="41" t="s">
+      <c r="Y6" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A7" s="18" t="s">
+    <row r="7" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14">
+      <c r="F7" s="10"/>
+      <c r="G7" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="38">
-        <v>1</v>
-      </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="44" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="39">
+        <v>1</v>
+      </c>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" s="42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="3" t="s">
+    <row r="8" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39">
-        <v>1</v>
-      </c>
-      <c r="W8" s="42"/>
-      <c r="X8" s="41" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40">
+        <v>1</v>
+      </c>
+      <c r="W8" s="43"/>
+      <c r="X8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A9" s="18" t="s">
+    <row r="9" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A9" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="38">
-        <v>1</v>
-      </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="45">
+      <c r="F9" s="10"/>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="39">
+        <v>1</v>
+      </c>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="46">
         <v>0</v>
       </c>
-      <c r="Y9" s="41" t="s">
+      <c r="Y9" s="42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="26">
         <v>0</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25">
-        <v>1</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="39">
-        <v>1</v>
-      </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="41" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40">
+        <v>1</v>
+      </c>
+      <c r="V10" s="40"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="41" t="s">
+      <c r="Y10" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A11" s="18" t="s">
+    <row r="11" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="14">
+      <c r="F11" s="27"/>
+      <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14">
-        <v>1</v>
-      </c>
-      <c r="J11" s="31">
-        <v>1</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="41" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32">
+        <v>1</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y11" s="41" t="s">
+      <c r="Y11" s="42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="3" t="s">
+    <row r="12" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31">
-        <v>1</v>
-      </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="41" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32">
+        <v>1</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y12" s="41" t="s">
+      <c r="Y12" s="42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="3" t="s">
+    <row r="13" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31">
-        <v>1</v>
-      </c>
-      <c r="M13" s="31">
-        <v>1</v>
-      </c>
-      <c r="N13" s="31">
+      <c r="F13" s="27"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32">
+        <v>1</v>
+      </c>
+      <c r="M13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
         <v>0</v>
       </c>
-      <c r="O13" s="31">
-        <v>1</v>
-      </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="41" t="s">
+      <c r="O13" s="32">
+        <v>1</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y13" s="41" t="s">
+      <c r="Y13" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A14" s="18" t="s">
+    <row r="14" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="29">
+      <c r="F14" s="10"/>
+      <c r="G14" s="30">
         <v>0</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29">
-        <v>1</v>
-      </c>
-      <c r="J14" s="36">
-        <v>1</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="41" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="37">
+        <v>1</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y14" s="41" t="s">
+      <c r="Y14" s="42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="3" t="s">
+    <row r="15" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
-        <v>1</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31">
-        <v>1</v>
-      </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="41" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y15" s="41" t="s">
+      <c r="Y15" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31">
-        <v>1</v>
-      </c>
-      <c r="M16" s="31">
-        <v>1</v>
-      </c>
-      <c r="N16" s="31">
-        <v>1</v>
-      </c>
-      <c r="O16" s="31">
-        <v>1</v>
-      </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="41" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32">
+        <v>1</v>
+      </c>
+      <c r="M16" s="32">
+        <v>1</v>
+      </c>
+      <c r="N16" s="32">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32">
+        <v>1</v>
+      </c>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y16" s="41" t="s">
+      <c r="Y16" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A17" s="18" t="s">
+    <row r="17" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="14">
+      <c r="F17" s="10"/>
+      <c r="G17" s="15">
         <v>0</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14">
-        <v>1</v>
-      </c>
-      <c r="J17" s="31">
-        <v>1</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="41" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y17" s="41" t="s">
+      <c r="Y17" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="3" t="s">
+    <row r="18" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="14">
+      <c r="F18" s="10"/>
+      <c r="G18" s="15">
         <v>0</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31">
-        <v>1</v>
-      </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="41" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32">
+        <v>1</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Y18" s="41" t="s">
+      <c r="Y18" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="3" t="s">
+    <row r="19" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31">
-        <v>1</v>
-      </c>
-      <c r="M19" s="31">
+      <c r="F19" s="10"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32">
+        <v>1</v>
+      </c>
+      <c r="M19" s="32">
         <v>0</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="32">
         <v>0</v>
       </c>
-      <c r="O19" s="31">
-        <v>1</v>
-      </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="41" t="s">
+      <c r="O19" s="32">
+        <v>1</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y19" s="41" t="s">
+      <c r="Y19" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A20" s="18" t="s">
+    <row r="20" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="31">
-        <v>1</v>
-      </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="41" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Y20" s="41" t="s">
+      <c r="Y20" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31">
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32">
         <v>0</v>
       </c>
-      <c r="M21" s="31">
-        <v>1</v>
-      </c>
-      <c r="N21" s="31">
+      <c r="M21" s="32">
+        <v>1</v>
+      </c>
+      <c r="N21" s="32">
         <v>0</v>
       </c>
-      <c r="O21" s="31">
-        <v>1</v>
-      </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="41" t="s">
+      <c r="O21" s="32">
+        <v>1</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y21" s="41" t="s">
+      <c r="Y21" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A22" s="18" t="s">
+    <row r="22" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A22" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14">
-        <v>1</v>
-      </c>
-      <c r="J22" s="31">
-        <v>1</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="41" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="32">
+        <v>1</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Y22" s="41" t="s">
+      <c r="Y22" s="42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="3" t="s">
+    <row r="23" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>1</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31">
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32">
         <v>0</v>
       </c>
-      <c r="M23" s="31">
-        <v>1</v>
-      </c>
-      <c r="N23" s="31">
-        <v>1</v>
-      </c>
-      <c r="O23" s="31">
-        <v>1</v>
-      </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="41" t="s">
+      <c r="M23" s="32">
+        <v>1</v>
+      </c>
+      <c r="N23" s="32">
+        <v>1</v>
+      </c>
+      <c r="O23" s="32">
+        <v>1</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y23" s="41" t="s">
+      <c r="Y23" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A24" s="3" t="s">
+    <row r="24" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14">
-        <v>1</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33">
-        <v>1</v>
-      </c>
-      <c r="T24" s="38"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="41" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34">
+        <v>1</v>
+      </c>
+      <c r="T24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y24" s="41" t="s">
+      <c r="Y24" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="4" customFormat="1" ht="23.9" customHeight="1" spans="1:25">
+      <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="31">
         <v>10110</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="14">
+      <c r="F25" s="10"/>
+      <c r="G25" s="15">
         <v>0</v>
       </c>
-      <c r="H25" s="14">
-        <v>1</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="41" t="s">
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Y25" s="41" t="s">
+      <c r="Y25" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1" spans="10:12">
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" ht="23" customHeight="1" spans="10:12">
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" ht="23" customHeight="1" spans="10:12">
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4120,10 +4120,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18"/>
@@ -4190,7 +4190,7 @@
       <c r="F2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -4485,7 +4485,7 @@
         <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4493,7 +4493,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>131</v>
@@ -4505,13 +4505,21 @@
         <v>148</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="1" t="s">
         <v>195</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
